--- a/хэши (черн, крас, бел)/black_phash.xlsx
+++ b/хэши (черн, крас, бел)/black_phash.xlsx
@@ -451,14 +451,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11817588360979972096</t>
+          <t>1010010000000000100000100000000010000110000000001000000000000000</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -469,14 +469,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16429274379407360000</t>
+          <t>1110010000000000100000100000000010000110000000001000000000000000</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.015687</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -487,14 +487,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11529355783556825088</t>
+          <t>1010000000000000100000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.015632</v>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -505,11 +505,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.015626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -523,11 +523,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.015629</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -559,7 +559,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -577,7 +577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -595,7 +595,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -613,7 +613,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -631,7 +631,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -649,7 +649,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -667,7 +667,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -703,7 +703,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -721,11 +721,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -739,11 +739,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.001201</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -757,7 +757,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -775,7 +775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -793,7 +793,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -811,11 +811,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.015608</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -847,7 +847,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -865,7 +865,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -883,7 +883,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -901,7 +901,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -919,7 +919,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -937,7 +937,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -955,11 +955,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.012738</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -973,11 +973,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.002084</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -991,11 +991,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.001022</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1009,11 +1009,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.0009790000000000001</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1027,11 +1027,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.001001</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1045,11 +1045,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.001763</v>
+        <v>0.015624</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1063,11 +1063,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.001246</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1081,11 +1081,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1099,11 +1099,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.001001</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1117,11 +1117,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.001013</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1135,11 +1135,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.001971</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1153,11 +1153,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.001148</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1207,11 +1207,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.012052</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1225,11 +1225,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.00187</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1279,11 +1279,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>0.0072</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1297,11 +1297,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.015695</v>
+        <v>0.004283</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1315,11 +1315,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.004997</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1333,11 +1333,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1351,11 +1351,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.015621</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1387,11 +1387,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>0.015714</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1423,11 +1423,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16933711072743948800</t>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.015621</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1441,14 +1441,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16933711072676839936</t>
+          <t>1110101100000000101000001000000010000000000000001000001000000000</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>0.015626</v>
       </c>
       <c r="D57" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1459,14 +1459,14 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16933711072676839936</t>
+          <t>1110101100000000101000001000000010000000000000001000001000000000</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1477,14 +1477,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16933711072676839936</t>
+          <t>1110101100000000101000001000000010000000000000001000001000000000</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.015626</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1495,14 +1495,14 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16933711072676839936</t>
+          <t>1110101100000000101000001000000010000000000000001000001000000000</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>0.015624</v>
       </c>
       <c r="D60" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1513,14 +1513,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16933711072676839936</t>
+          <t>1110101100000000101000001000000010000000000000001000001000000000</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1531,14 +1531,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16933711072676839936</t>
+          <t>1110101100000000101000001000000010000000000000001000001000000000</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.015636</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1549,14 +1549,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16933711072676839936</t>
+          <t>1110101100000000101000001000000010000000000000001000001000000000</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1567,14 +1567,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16933711072676839424</t>
+          <t>1110101100000000101000001000000010000000000000001000000000000000</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>0.015627</v>
       </c>
       <c r="D64" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/хэши (черн, крас, бел)/black_phash.xlsx
+++ b/хэши (черн, крас, бел)/black_phash.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.006987</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.00163</v>
       </c>
       <c r="D3" t="n">
         <v>9</v>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.015632</v>
+        <v>0.013816</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.007046</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.015629</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.005265</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.001656</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.005255</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.001503</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.00548</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.015608</v>
+        <v>0.001067</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.001426</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.004445</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.001422</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.005514</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.001355</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.015624</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.005565</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.001472</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.005496</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.001442</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.012052</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.00187</v>
+        <v>0.005487</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.00107</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>0.001514</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0072</v>
+        <v>0.005931</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.004283</v>
+        <v>0.006471</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.004997</v>
+        <v>0.000578</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.001</v>
+        <v>0.00685</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>0.006948</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>0.006896</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.015714</v>
+        <v>0.005375</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>0.001527</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>0.006982</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.015626</v>
+        <v>0.006978</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1463,7 +1463,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>0.006931</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>0.005412</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.015624</v>
+        <v>0.00045</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>0.006912</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>0.006934</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>0.006975</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -1571,10 +1571,370 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.015627</v>
+        <v>0.006465</v>
       </c>
       <c r="D64" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>black_fred_1.jpg</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.006916</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>black_fred_2.jpg</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.006896</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>black_fred_3.jpg</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.006519</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>black_fred_4.jpg</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.007991</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>black_fred_5.jpg</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.005639</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>black_fred_6.jpg</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.00572</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>black_fred_7.jpg</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.007012</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>black_fred_8.jpg</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.005847</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>black_fred_9.jpg</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.00592</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>black_fred_10.jpg</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.001662</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>black_fred_11.jpg</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.006885</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>black_fred_12.jpg</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.007135</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>black_fred_13.jpg</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.006697</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>black_fred_14.jpg</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.005392</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>black_fred_15.jpg</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.002655</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>black_fred_16.jpg</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.005933</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>black_fred_17.jpg</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.007236</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>black_fred_18.jpg</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.006802</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>black_fred_19.jpg</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.006187</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>black_fred_20.jpg</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1110101100000000101000001000000010000100000000001000001000000000</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.005924</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
